--- a/readme/PSP.xlsx
+++ b/readme/PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogi_\Desktop\github\bitacora\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752EFBD7-0242-462C-9F52-7E6107BE8BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9208F11-8409-4206-9142-1173CE37E604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B3568CBB-EDCD-405D-AB40-2E0975C3B890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{B3568CBB-EDCD-405D-AB40-2E0975C3B890}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Fin</t>
   </si>
@@ -172,6 +172,27 @@
   </si>
   <si>
     <t>Creación de marco de trabajo</t>
+  </si>
+  <si>
+    <t>Creación de DB, modelos y relaciones</t>
+  </si>
+  <si>
+    <t>Creación de controladores</t>
+  </si>
+  <si>
+    <t>Pensando estructura de subida de archivo</t>
+  </si>
+  <si>
+    <t>Funcionalidad para carga de archivo simulteanos y mostrar progreso de la carga</t>
+  </si>
+  <si>
+    <t>Autentificación</t>
+  </si>
+  <si>
+    <t>Autenticación por huella</t>
+  </si>
+  <si>
+    <t>Vlidación de recibido</t>
   </si>
 </sst>
 </file>
@@ -181,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh&quot;:&quot;mm&quot;:&quot;ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,12 +236,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Liberation Sans1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Liberation Sans1"/>
     </font>
   </fonts>
@@ -281,9 +296,15 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -291,12 +312,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F89E15D-B9A5-4C73-AF20-D299D11DC7D6}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -650,79 +665,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="18">
         <v>45575</v>
       </c>
       <c r="C8" s="14">
@@ -737,8 +752,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="20"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="14">
         <v>0.59027777777777779</v>
       </c>
@@ -754,7 +769,7 @@
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="14">
         <v>0.63402777777777775</v>
       </c>
@@ -770,7 +785,7 @@
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="14">
         <v>0.64444444444444449</v>
       </c>
@@ -786,59 +801,89 @@
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="21">
+      <c r="B12" s="18"/>
+      <c r="C12" s="14">
         <v>0.73819444444444449</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="14">
+        <v>0.7416666666666667</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>-0.73819444444444449</v>
+        <v>3.4722222222222099E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.76388888888888884</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2222222222222143E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14">
+        <v>0.78125</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.79861111111111116</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.87430555555555556</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+        <v>7.5694444444444398E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.5">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.96527777777777779</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0972222222222232E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="13">
+        <v>45581</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="2">
@@ -987,17 +1032,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1025,65 +1071,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1228,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1469304F-D26A-4728-8A16-6244E553D5DE}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1241,42 +1287,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -1302,7 +1348,7 @@
         <v>45575</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1312,7 +1358,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1320,7 +1366,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
@@ -1328,7 +1374,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
@@ -1336,16 +1382,20 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="5"/>
@@ -1523,42 +1573,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -1792,14 +1842,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="4" t="s">
